--- a/EMX/TIMID_EMX.xlsx
+++ b/EMX/TIMID_EMX.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>name</t>
   </si>
@@ -336,7 +336,7 @@
     <t>Unique ID of the TIMID sample</t>
   </si>
   <si>
-    <t>categorical_mref</t>
+    <t>categorical</t>
   </si>
   <si>
     <t>Research_center</t>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>mgs_performed</t>
-  </si>
-  <si>
-    <t>categorical</t>
   </si>
   <si>
     <t>Has this sample metagenomics information?</t>
@@ -4019,7 +4016,7 @@
         <v>105</v>
       </c>
       <c r="C26" t="s" s="57">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D26" t="b" s="62">
         <v>1</v>
@@ -4030,11 +4027,11 @@
       </c>
       <c r="G26" s="63"/>
       <c r="H26" t="s" s="57">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="63"/>
       <c r="J26" t="s" s="57">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
@@ -4051,13 +4048,13 @@
     </row>
     <row r="27" ht="32.25" customHeight="1">
       <c r="A27" t="s" s="57">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s" s="61">
         <v>105</v>
       </c>
       <c r="C27" t="s" s="57">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27" t="b" s="64">
         <v>1</v>
@@ -4068,11 +4065,11 @@
       </c>
       <c r="G27" s="63"/>
       <c r="H27" t="s" s="57">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="63"/>
       <c r="J27" t="s" s="57">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
@@ -4089,28 +4086,28 @@
     </row>
     <row r="28" ht="32.25" customHeight="1">
       <c r="A28" t="s" s="57">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s" s="61">
         <v>105</v>
       </c>
       <c r="C28" t="s" s="57">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" t="b" s="66">
         <v>1</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" t="s" s="67">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="63"/>
       <c r="H28" t="s" s="57">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" s="63"/>
       <c r="J28" t="s" s="57">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
@@ -4127,10 +4124,10 @@
     </row>
     <row r="29" ht="32.25" customHeight="1">
       <c r="A29" t="s" s="53">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s" s="68">
         <v>123</v>
-      </c>
-      <c r="B29" t="s" s="68">
-        <v>124</v>
       </c>
       <c r="C29" s="69"/>
       <c r="D29" t="b" s="70">
@@ -4144,11 +4141,11 @@
         <v>95</v>
       </c>
       <c r="H29" t="s" s="53">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="69"/>
       <c r="J29" t="s" s="53">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
@@ -4168,7 +4165,7 @@
         <v>104</v>
       </c>
       <c r="B30" t="s" s="68">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="69"/>
       <c r="D30" t="b" s="71">
@@ -4199,20 +4196,20 @@
     </row>
     <row r="31" ht="32.25" customHeight="1">
       <c r="A31" t="s" s="53">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s" s="68">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s" s="53">
         <v>126</v>
-      </c>
-      <c r="B31" t="s" s="68">
-        <v>124</v>
-      </c>
-      <c r="C31" t="s" s="53">
-        <v>127</v>
       </c>
       <c r="D31" t="b" s="71">
         <v>0</v>
       </c>
       <c r="E31" s="69"/>
       <c r="F31" t="s" s="68">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="69"/>
       <c r="H31" t="s" s="53">
@@ -4220,7 +4217,7 @@
       </c>
       <c r="I31" s="69"/>
       <c r="J31" t="s" s="53">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
@@ -4237,13 +4234,13 @@
     </row>
     <row r="32" ht="32.25" customHeight="1">
       <c r="A32" t="s" s="53">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s" s="68">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s" s="53">
         <v>130</v>
-      </c>
-      <c r="B32" t="s" s="68">
-        <v>124</v>
-      </c>
-      <c r="C32" t="s" s="53">
-        <v>131</v>
       </c>
       <c r="D32" t="b" s="56">
         <v>0</v>
@@ -4252,11 +4249,11 @@
       <c r="F32" s="72"/>
       <c r="G32" s="54"/>
       <c r="H32" t="s" s="53">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I32" s="69"/>
       <c r="J32" t="s" s="53">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
@@ -4273,10 +4270,10 @@
     </row>
     <row r="33" ht="32.25" customHeight="1">
       <c r="A33" t="s" s="57">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s" s="73">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" t="b" s="60">
@@ -4290,11 +4287,11 @@
         <v>95</v>
       </c>
       <c r="H33" t="s" s="57">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" s="65"/>
       <c r="J33" t="s" s="57">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" s="65"/>
       <c r="L33" s="65"/>
@@ -4314,7 +4311,7 @@
         <v>104</v>
       </c>
       <c r="B34" t="s" s="58">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" t="b" s="62">
@@ -4352,10 +4349,10 @@
         <v>83</v>
       </c>
       <c r="B35" t="s" s="61">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s" s="57">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D35" t="b" s="62">
         <v>0</v>
@@ -4387,13 +4384,13 @@
     </row>
     <row r="36" ht="32.05" customHeight="1">
       <c r="A36" t="s" s="57">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s" s="61">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s" s="57">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="b" s="62">
         <v>0</v>
@@ -4404,11 +4401,11 @@
       </c>
       <c r="G36" s="63"/>
       <c r="H36" t="s" s="57">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I36" s="63"/>
       <c r="J36" t="s" s="57">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" s="63"/>
       <c r="L36" s="63"/>
@@ -4430,10 +4427,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s" s="61">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s" s="57">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D37" t="b" s="62">
         <v>0</v>
@@ -4468,10 +4465,10 @@
         <v>86</v>
       </c>
       <c r="B38" t="s" s="61">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s" s="57">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D38" t="b" s="62">
         <v>0</v>
@@ -4505,13 +4502,13 @@
     </row>
     <row r="39" ht="32.05" customHeight="1">
       <c r="A39" t="s" s="57">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s" s="61">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s" s="57">
         <v>136</v>
-      </c>
-      <c r="B39" t="s" s="61">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s" s="57">
-        <v>137</v>
       </c>
       <c r="D39" t="b" s="62">
         <v>0</v>
@@ -4520,11 +4517,11 @@
       <c r="F39" s="63"/>
       <c r="G39" s="63"/>
       <c r="H39" t="s" s="57">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I39" s="63"/>
       <c r="J39" t="s" s="57">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K39" s="63"/>
       <c r="L39" s="63"/>
@@ -4541,10 +4538,10 @@
     </row>
     <row r="40" ht="32.05" customHeight="1">
       <c r="A40" t="s" s="53">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s" s="68">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" t="b" s="71">
@@ -4556,11 +4553,11 @@
         <v>1</v>
       </c>
       <c r="H40" t="s" s="53">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I40" s="69"/>
       <c r="J40" t="s" s="53">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K40" t="b" s="71">
         <v>1</v>
@@ -4582,7 +4579,7 @@
         <v>24</v>
       </c>
       <c r="B41" t="s" s="68">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s" s="77">
         <v>110</v>
@@ -4596,11 +4593,11 @@
       </c>
       <c r="G41" s="54"/>
       <c r="H41" t="s" s="53">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" t="s" s="53">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
@@ -4617,10 +4614,10 @@
     </row>
     <row r="42" ht="32.05" customHeight="1">
       <c r="A42" t="s" s="78">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s" s="79">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" t="b" s="81">
@@ -4634,11 +4631,11 @@
         <v>95</v>
       </c>
       <c r="H42" t="s" s="78">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="80"/>
       <c r="J42" t="s" s="78">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K42" s="80"/>
       <c r="L42" s="80"/>
@@ -4658,10 +4655,10 @@
         <v>104</v>
       </c>
       <c r="B43" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="82">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="b" s="81">
         <v>0</v>
@@ -4695,13 +4692,13 @@
     </row>
     <row r="44" ht="32.05" customHeight="1">
       <c r="A44" t="s" s="78">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s" s="82">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D44" t="b" s="81">
         <v>1</v>
@@ -4712,11 +4709,11 @@
       </c>
       <c r="G44" s="80"/>
       <c r="H44" t="s" s="78">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I44" s="80"/>
       <c r="J44" t="s" s="78">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K44" s="80"/>
       <c r="L44" s="80"/>
@@ -4733,13 +4730,13 @@
     </row>
     <row r="45" ht="32.05" customHeight="1">
       <c r="A45" t="s" s="78">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s" s="82">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D45" t="b" s="81">
         <v>1</v>
@@ -4750,7 +4747,7 @@
       </c>
       <c r="G45" s="80"/>
       <c r="H45" t="s" s="78">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I45" s="80"/>
       <c r="J45" t="s" s="78">
@@ -4771,10 +4768,10 @@
     </row>
     <row r="46" ht="32.05" customHeight="1">
       <c r="A46" t="s" s="78">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s" s="82">
         <v>110</v>
@@ -4788,7 +4785,7 @@
       </c>
       <c r="G46" s="80"/>
       <c r="H46" t="s" s="78">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="80"/>
       <c r="J46" t="s" s="78">
@@ -4809,28 +4806,28 @@
     </row>
     <row r="47" ht="32.05" customHeight="1">
       <c r="A47" t="s" s="78">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s" s="78">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s" s="82">
         <v>126</v>
-      </c>
-      <c r="B47" t="s" s="78">
-        <v>142</v>
-      </c>
-      <c r="C47" t="s" s="82">
-        <v>127</v>
       </c>
       <c r="D47" t="b" s="81">
         <v>0</v>
       </c>
       <c r="E47" s="80"/>
       <c r="F47" t="s" s="90">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="80"/>
       <c r="H47" t="s" s="78">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I47" s="80"/>
       <c r="J47" t="s" s="78">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" s="80"/>
       <c r="L47" s="80"/>
@@ -4852,7 +4849,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s" s="82">
         <v>110</v>
@@ -4866,11 +4863,11 @@
       </c>
       <c r="G48" s="80"/>
       <c r="H48" t="s" s="78">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="80"/>
       <c r="J48" t="s" s="78">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K48" s="80"/>
       <c r="L48" s="80"/>
@@ -4889,13 +4886,13 @@
     </row>
     <row r="49" ht="32.05" customHeight="1">
       <c r="A49" t="s" s="78">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s" s="78">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s" s="82">
         <v>130</v>
-      </c>
-      <c r="B49" t="s" s="78">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s" s="82">
-        <v>131</v>
       </c>
       <c r="D49" t="b" s="81">
         <v>1</v>
@@ -4904,11 +4901,11 @@
       <c r="F49" s="94"/>
       <c r="G49" s="80"/>
       <c r="H49" t="s" s="78">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I49" s="80"/>
       <c r="J49" t="s" s="78">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K49" s="80"/>
       <c r="L49" s="80"/>
@@ -4925,13 +4922,13 @@
     </row>
     <row r="50" ht="32.05" customHeight="1">
       <c r="A50" t="s" s="78">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s" s="82">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D50" t="b" s="81">
         <v>0</v>
@@ -4946,7 +4943,7 @@
       </c>
       <c r="I50" s="80"/>
       <c r="J50" t="s" s="78">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K50" s="80"/>
       <c r="L50" s="80"/>
@@ -4965,13 +4962,13 @@
     </row>
     <row r="51" ht="32.05" customHeight="1">
       <c r="A51" t="s" s="78">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s" s="82">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" t="b" s="81">
         <v>1</v>
@@ -4980,11 +4977,11 @@
       <c r="F51" s="98"/>
       <c r="G51" s="94"/>
       <c r="H51" t="s" s="78">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="94"/>
       <c r="J51" t="s" s="78">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K51" s="94"/>
       <c r="L51" s="94"/>
@@ -5001,13 +4998,13 @@
     </row>
     <row r="52" ht="32.05" customHeight="1">
       <c r="A52" t="s" s="78">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s" s="78">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s" s="99">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D52" t="b" s="81">
         <v>0</v>
@@ -5018,11 +5015,11 @@
       </c>
       <c r="G52" s="98"/>
       <c r="H52" t="s" s="78">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="98"/>
       <c r="J52" t="s" s="78">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K52" s="98"/>
       <c r="L52" s="98"/>
@@ -5044,10 +5041,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s" s="90">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s" s="101">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="b" s="102">
         <v>0</v>
@@ -5056,11 +5053,11 @@
       <c r="F53" s="98"/>
       <c r="G53" s="98"/>
       <c r="H53" t="s" s="78">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53" s="98"/>
       <c r="J53" t="s" s="78">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K53" t="b" s="100">
         <v>1</v>
@@ -5068,7 +5065,7 @@
       <c r="L53" s="98"/>
       <c r="M53" s="98"/>
       <c r="N53" t="s" s="103">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="98"/>
       <c r="P53" s="98"/>
@@ -5084,10 +5081,10 @@
         <v>68</v>
       </c>
       <c r="B54" t="s" s="68">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s" s="105">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" t="b" s="106">
         <v>0</v>
@@ -5119,24 +5116,24 @@
     </row>
     <row r="55" ht="32.05" customHeight="1">
       <c r="A55" t="s" s="111">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s" s="68">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s" s="112">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="109"/>
       <c r="E55" s="109"/>
       <c r="F55" s="109"/>
       <c r="G55" s="109"/>
       <c r="H55" t="s" s="113">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" s="109"/>
       <c r="J55" t="s" s="113">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K55" t="b" s="114">
         <v>1</v>
@@ -5155,24 +5152,24 @@
     </row>
     <row r="56" ht="32.05" customHeight="1">
       <c r="A56" t="s" s="111">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s" s="68">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s" s="112">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="109"/>
       <c r="E56" s="109"/>
       <c r="F56" s="109"/>
       <c r="G56" s="109"/>
       <c r="H56" t="s" s="113">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="109"/>
       <c r="J56" t="s" s="113">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K56" s="109"/>
       <c r="L56" s="109"/>
@@ -5189,24 +5186,24 @@
     </row>
     <row r="57" ht="32.05" customHeight="1">
       <c r="A57" t="s" s="116">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s" s="72">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s" s="117">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="118"/>
       <c r="E57" s="118"/>
       <c r="F57" s="118"/>
       <c r="G57" s="118"/>
       <c r="H57" t="s" s="119">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I57" s="118"/>
       <c r="J57" t="s" s="119">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K57" s="118"/>
       <c r="L57" s="118"/>
